--- a/Source/DK.Web/ReportTemplates/6A7BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/6A7BC.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3C4F3E-B7F4-4DD0-8B21-0C95DBDE3C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="1404" yWindow="2856" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="__row__">Sheet1!$A$9</definedName>
+    <definedName name="__sum__">Sheet1!$F$10</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <r>
       <t xml:space="preserve">BỘ CÔNG AN
@@ -153,9 +155,6 @@
     <t>Giá trị còn lại</t>
   </si>
   <si>
-    <t>&lt;#row.&gt;</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -193,11 +192,56 @@
       <t>Loại tài sản: Nguyên giá/01 tài sản từ 100 triệu đồng trở lên (trừ nhà đất, ô tô, mô tô, xe máy)</t>
     </r>
   </si>
+  <si>
+    <t>&lt;#row.No&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Code&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.NhanHieu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.NamSuDung&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.NganSachBo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.Khac&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.TongCong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.HaoMonLuyKe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.GiaTriConLai&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#row.GhiChu&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.NganSachBo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.Khac&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.TongCong&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sum.HaoMonLuyKe&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,10 +437,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -716,30 +760,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -748,15 +792,15 @@
       <c r="D1" s="10"/>
       <c r="E1" s="8"/>
       <c r="H1" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
@@ -769,7 +813,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
@@ -784,26 +828,26 @@
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>4</v>
@@ -817,10 +861,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="26"/>
       <c r="C7" s="17"/>
@@ -839,7 +883,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -874,42 +918,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>7</v>
       </c>
@@ -917,14 +961,24 @@
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="F10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>3</v>
       </c>

--- a/Source/DK.Web/ReportTemplates/6A7BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/6A7BC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3C4F3E-B7F4-4DD0-8B21-0C95DBDE3C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1404" yWindow="2856" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="2850" windowWidth="23040" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -30,23 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
-  <si>
-    <r>
-      <t xml:space="preserve">BỘ CÔNG AN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>…………………………………
-…………………………………</t>
-    </r>
-  </si>
   <si>
     <t>Thời điểm: Ngày……. tháng……. Năm…….</t>
   </si>
@@ -173,9 +155,6 @@
     <t>Năm sử dụng</t>
   </si>
   <si>
-    <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số …………../2020/TT-BCA ngày …../…/2020</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">&lt;#title&gt;
 </t>
@@ -237,11 +216,18 @@
   <si>
     <t>&lt;#sum.HaoMonLuyKe&gt;</t>
   </si>
+  <si>
+    <t>Mẫu &lt;#pattern&gt; ban hành kèm theo Thông tư số 109/2020/TT-BCA ngày 10/10/2020</t>
+  </si>
+  <si>
+    <t>BỘ CÔNG AN
+Viện Khoa Học Hình Sự</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,47 +746,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
       <c r="D1" s="10"/>
       <c r="E1" s="8"/>
       <c r="H1" s="24" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
@@ -813,9 +799,9 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -828,62 +814,62 @@
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>9</v>
-      </c>
       <c r="K6" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="26"/>
       <c r="C7" s="17"/>
       <c r="D7" s="26"/>
       <c r="E7" s="17"/>
       <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -918,76 +904,76 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
       <c r="F10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="J10" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
       <c r="I11" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>

--- a/Source/DK.Web/ReportTemplates/6A7BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/6A7BC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Thời điểm: Ngày……. tháng……. Năm…….</t>
   </si>
@@ -222,6 +222,9 @@
   <si>
     <t>BỘ CÔNG AN
 Viện Khoa Học Hình Sự</t>
+  </si>
+  <si>
+    <t>&lt;#sum.GiaTriConLai&gt;</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,9 +431,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,6 +466,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,49 +776,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="10"/>
       <c r="E1" s="8"/>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
@@ -820,42 +826,42 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
@@ -865,9 +871,9 @@
       <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -920,19 +926,19 @@
       <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="29" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -940,43 +946,43 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="16" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>25</v>
+      <c r="J10" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/Source/DK.Web/ReportTemplates/6A7BC.xlsx
+++ b/Source/DK.Web/ReportTemplates/6A7BC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\qlts\Source\DK.Web\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\qlts\Source\DK.Web\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F014B230-5423-4D3A-98A5-6EE8C69700D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="2850" windowWidth="23040" windowHeight="12210"/>
+    <workbookView xWindow="1704" yWindow="1512" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -230,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,6 +429,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -468,10 +472,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,116 +753,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:J10"/>
+      <selection activeCell="F9" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="10"/>
       <c r="E1" s="8"/>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="16"/>
+    <row r="7" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
@@ -871,11 +872,11 @@
       <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -910,7 +911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -920,69 +921,69 @@
       <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="30" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="30" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="16" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="16">
